--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T16:07:40+00:00</t>
+    <t>2021-12-02T15:58:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion](HL7 AT CodeSystem) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:58:59+00:00</t>
+    <t>2021-12-02T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
-The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion](HL7 AT CodeSystem) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T16:06:37+00:00</t>
+    <t>2021-12-03T06:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T06:55:45+00:00</t>
+    <t>2021-12-15T15:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:08:55+00:00</t>
+    <t>2021-12-16T15:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
